--- a/template/excel/xay.xlsx
+++ b/template/excel/xay.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\export\template\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\xd\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -768,7 +768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -790,15 +790,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,30 +807,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -897,231 +864,270 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1265,14 +1271,19 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="274320" cy="152400"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>472440</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
@@ -1318,20 +1329,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="274320" cy="160020"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>472440</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
@@ -1377,20 +1393,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="190500"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
@@ -1436,20 +1457,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>365760</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
@@ -1495,20 +1521,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="190500"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>236220</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
@@ -1554,20 +1585,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="190500"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>236220</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
@@ -1613,20 +1649,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="190500"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
@@ -1672,20 +1713,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="182880"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
@@ -1731,20 +1777,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="190500"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
@@ -1790,20 +1841,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="190500"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>220980</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
@@ -1849,20 +1905,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="190500"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>220980</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
@@ -1908,20 +1969,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="190500"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
@@ -1967,20 +2033,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="198120"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
@@ -2026,20 +2097,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="190500"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
@@ -2085,20 +2161,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="190500"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
@@ -2144,20 +2225,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="198120"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
@@ -2203,20 +2289,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="198120"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>220980</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
@@ -2262,20 +2353,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="190500"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>236220</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
@@ -2321,20 +2417,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="190500"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>236220</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
@@ -2380,20 +2481,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="198120"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>220980</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
@@ -2439,20 +2545,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="190500"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>220980</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
@@ -2498,20 +2609,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="198120"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>220980</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
@@ -2557,20 +2673,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="198120"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>220980</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
@@ -2616,20 +2737,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="190500"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>220980</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
@@ -2675,20 +2801,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="190500"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>220980</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
@@ -2734,20 +2865,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="198120"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>220980</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
@@ -2793,20 +2929,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="198120"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>220980</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
@@ -2852,20 +2993,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="190500"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>220980</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
@@ -2911,20 +3057,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="190500"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>213360</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
@@ -2970,20 +3121,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="228600" cy="190500"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>213360</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
@@ -3029,7 +3185,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -3304,8 +3460,8 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3319,569 +3475,572 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="66" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="93" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="98"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="91" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="108"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="88" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="99"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="83"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="86" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="101"/>
-      <c r="H5" s="102"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="84"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="100"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="81" t="s">
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="80"/>
-      <c r="H7" s="79"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="110"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="119"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="94"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="119"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="119"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="94"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="119"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="119"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="119"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="119"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="119"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="94"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="119"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="94"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="119"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="94"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="119"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="94"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="119"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="94"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="116"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="91"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="109"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="71"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="53"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="69" t="s">
+      <c r="A22" s="52"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="49"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="23"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="73"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="64" t="s">
+      <c r="C24" s="113"/>
+      <c r="D24" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="62" t="s">
+      <c r="F24" s="102"/>
+      <c r="G24" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="61"/>
+      <c r="H24" s="103"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="58" t="s">
+      <c r="A25" s="75"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="56" t="s">
+      <c r="H25" s="43" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55">
+      <c r="A26" s="42">
         <v>1</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="50"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="37"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45">
+      <c r="A27" s="34">
         <v>2</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="39"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45">
+      <c r="A28" s="34">
         <v>3</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="39"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45">
+      <c r="A29" s="34">
         <v>4</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="39"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45">
+      <c r="A30" s="34">
         <v>5</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="39"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="28"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45">
+      <c r="A31" s="34">
         <v>6</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="39"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="28"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45">
+      <c r="A32" s="34">
         <v>7</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="39"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="28"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45">
+      <c r="A33" s="34">
         <v>8</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="39"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="28"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45">
+      <c r="A34" s="34">
         <v>9</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="39"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="28"/>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45">
+      <c r="A35" s="34">
         <v>10</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="39"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="28"/>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45">
+      <c r="A36" s="34">
         <v>11</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="39"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="28"/>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45">
+      <c r="A37" s="34">
         <v>12</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="39"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="28"/>
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45">
+      <c r="A38" s="34">
         <v>13</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="39"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="28"/>
     </row>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38">
+      <c r="A39" s="27">
         <v>14</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="32"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="26"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="15"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="111"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="113"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="88"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="114"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="116"/>
-    </row>
-    <row r="43" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+      <c r="A42" s="89"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="91"/>
+    </row>
+    <row r="43" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="23"/>
-    </row>
-    <row r="44" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="17" t="s">
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="73"/>
+    </row>
+    <row r="44" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="121"/>
+      <c r="B44" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="20"/>
-      <c r="H44" s="19"/>
-    </row>
-    <row r="45" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="17" t="s">
+      <c r="C44" s="123"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="46"/>
+    </row>
+    <row r="45" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="120"/>
+      <c r="B45" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="15"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="10" t="s">
+      <c r="A46" s="10"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="10" t="s">
+      <c r="E46" s="107"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="H46" s="9"/>
+      <c r="H46" s="106"/>
     </row>
     <row r="47" spans="1:8" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
@@ -3920,7 +4079,18 @@
       <c r="H49" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="A8:E20"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A43:H43"/>
@@ -3931,16 +4101,6 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A41:H42"/>
     <mergeCell ref="F8:H20"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B24:C25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0" header="0.3" footer="0.3"/>
